--- a/data/BookAppointmentData.xlsx
+++ b/data/BookAppointmentData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
   <si>
     <t>Passport Number</t>
   </si>
@@ -99,69 +99,12 @@
     <t>00919884098840</t>
   </si>
   <si>
-    <t>sample@sample.com</t>
-  </si>
-  <si>
     <t>00919894098940</t>
   </si>
   <si>
-    <t>sample1@sample.com</t>
-  </si>
-  <si>
     <t>00919542295422</t>
   </si>
   <si>
-    <t>sample2@sample.com</t>
-  </si>
-  <si>
-    <t>sample3@sample.com</t>
-  </si>
-  <si>
-    <t>sample4@sample.com</t>
-  </si>
-  <si>
-    <t>sample5@sample.com</t>
-  </si>
-  <si>
-    <t>sample6@sample.com</t>
-  </si>
-  <si>
-    <t>sample7@sample.com</t>
-  </si>
-  <si>
-    <t>sample8@sample.com</t>
-  </si>
-  <si>
-    <t>sample9@sample.com</t>
-  </si>
-  <si>
-    <t>sample10@sample.com</t>
-  </si>
-  <si>
-    <t>sample11@sample.com</t>
-  </si>
-  <si>
-    <t>sample12@sample.com</t>
-  </si>
-  <si>
-    <t>sample13@sample.com</t>
-  </si>
-  <si>
-    <t>sample14@sample.com</t>
-  </si>
-  <si>
-    <t>sample15@sample.com</t>
-  </si>
-  <si>
-    <t>sample16@sample.com</t>
-  </si>
-  <si>
-    <t>sample17@sample.com</t>
-  </si>
-  <si>
-    <t>sample18@sample.com</t>
-  </si>
-  <si>
     <t>00919542295423</t>
   </si>
   <si>
@@ -442,6 +385,12 @@
   </si>
   <si>
     <t>009748840980</t>
+  </si>
+  <si>
+    <t>Vinoth@yahoo.co.in.com</t>
+  </si>
+  <si>
+    <t>vinodhan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -860,7 +809,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -873,7 +822,7 @@
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,678 +830,678 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>77</v>
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>65</v>
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1"/>
-    <hyperlink ref="D20" r:id="rId2"/>
-    <hyperlink ref="D12" r:id="rId3"/>
-    <hyperlink ref="D11" r:id="rId4"/>
-    <hyperlink ref="D13" r:id="rId5"/>
-    <hyperlink ref="D14" r:id="rId6"/>
-    <hyperlink ref="D15" r:id="rId7"/>
-    <hyperlink ref="D16" r:id="rId8"/>
-    <hyperlink ref="D17" r:id="rId9"/>
-    <hyperlink ref="D18" r:id="rId10"/>
-    <hyperlink ref="D2" r:id="rId11"/>
-    <hyperlink ref="D3" r:id="rId12"/>
-    <hyperlink ref="D4" r:id="rId13"/>
-    <hyperlink ref="D5" r:id="rId14"/>
-    <hyperlink ref="D6" r:id="rId15"/>
-    <hyperlink ref="D7" r:id="rId16"/>
-    <hyperlink ref="D8" r:id="rId17"/>
-    <hyperlink ref="D9" r:id="rId18"/>
-    <hyperlink ref="D10" r:id="rId19"/>
-    <hyperlink ref="E19" r:id="rId20"/>
-    <hyperlink ref="E20" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="E11" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="E14" r:id="rId25"/>
-    <hyperlink ref="E15" r:id="rId26"/>
-    <hyperlink ref="E16" r:id="rId27"/>
-    <hyperlink ref="E17" r:id="rId28"/>
-    <hyperlink ref="E18" r:id="rId29"/>
-    <hyperlink ref="E2" r:id="rId30"/>
-    <hyperlink ref="E3" r:id="rId31"/>
-    <hyperlink ref="E4" r:id="rId32"/>
-    <hyperlink ref="E5" r:id="rId33"/>
-    <hyperlink ref="E6" r:id="rId34"/>
-    <hyperlink ref="E7" r:id="rId35"/>
-    <hyperlink ref="E8" r:id="rId36"/>
-    <hyperlink ref="E9" r:id="rId37"/>
-    <hyperlink ref="E10" r:id="rId38"/>
+    <hyperlink ref="D18" r:id="rId1" display="sample@sample.com"/>
+    <hyperlink ref="D19" r:id="rId2" display="sample1@sample.com"/>
+    <hyperlink ref="D11" r:id="rId3" display="sample2@sample.com"/>
+    <hyperlink ref="D10" r:id="rId4" display="sample3@sample.com"/>
+    <hyperlink ref="D12" r:id="rId5" display="sample4@sample.com"/>
+    <hyperlink ref="D13" r:id="rId6" display="sample5@sample.com"/>
+    <hyperlink ref="D14" r:id="rId7" display="sample6@sample.com"/>
+    <hyperlink ref="D15" r:id="rId8" display="sample7@sample.com"/>
+    <hyperlink ref="D16" r:id="rId9" display="sample8@sample.com"/>
+    <hyperlink ref="D17" r:id="rId10" display="sample9@sample.com"/>
+    <hyperlink ref="D20" r:id="rId11" display="sample10@sample.com"/>
+    <hyperlink ref="D2" r:id="rId12" display="sample11@sample.com"/>
+    <hyperlink ref="D3" r:id="rId13" display="sample12@sample.com"/>
+    <hyperlink ref="D4" r:id="rId14" display="sample13@sample.com"/>
+    <hyperlink ref="D5" r:id="rId15" display="sample14@sample.com"/>
+    <hyperlink ref="D6" r:id="rId16" display="sample15@sample.com"/>
+    <hyperlink ref="D7" r:id="rId17" display="sample16@sample.com"/>
+    <hyperlink ref="D8" r:id="rId18" display="sample17@sample.com"/>
+    <hyperlink ref="D9" r:id="rId19" display="sample18@sample.com"/>
+    <hyperlink ref="E18" r:id="rId20" display="sample@sample.com"/>
+    <hyperlink ref="E19" r:id="rId21" display="sample1@sample.com"/>
+    <hyperlink ref="E11" r:id="rId22" display="sample2@sample.com"/>
+    <hyperlink ref="E10" r:id="rId23" display="sample3@sample.com"/>
+    <hyperlink ref="E12" r:id="rId24" display="sample4@sample.com"/>
+    <hyperlink ref="E13" r:id="rId25" display="sample5@sample.com"/>
+    <hyperlink ref="E14" r:id="rId26" display="sample6@sample.com"/>
+    <hyperlink ref="E15" r:id="rId27" display="sample7@sample.com"/>
+    <hyperlink ref="E16" r:id="rId28" display="sample8@sample.com"/>
+    <hyperlink ref="E17" r:id="rId29" display="sample9@sample.com"/>
+    <hyperlink ref="E20" r:id="rId30" display="sample10@sample.com"/>
+    <hyperlink ref="E2" r:id="rId31" display="sample11@sample.com"/>
+    <hyperlink ref="E3" r:id="rId32" display="sample12@sample.com"/>
+    <hyperlink ref="E4" r:id="rId33" display="sample13@sample.com"/>
+    <hyperlink ref="E5" r:id="rId34" display="sample14@sample.com"/>
+    <hyperlink ref="E6" r:id="rId35" display="sample15@sample.com"/>
+    <hyperlink ref="E7" r:id="rId36" display="sample16@sample.com"/>
+    <hyperlink ref="E8" r:id="rId37" display="sample17@sample.com"/>
+    <hyperlink ref="E9" r:id="rId38" display="sample18@sample.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId39"/>

--- a/data/BookAppointmentData.xlsx
+++ b/data/BookAppointmentData.xlsx
@@ -809,7 +809,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,14 +855,14 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>51</v>
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>123</v>
@@ -871,7 +871,7 @@
         <v>124</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>60</v>
@@ -880,21 +880,21 @@
         <v>62</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>123</v>
@@ -903,7 +903,7 @@
         <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>60</v>
@@ -912,21 +912,21 @@
         <v>62</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>123</v>
@@ -935,7 +935,7 @@
         <v>124</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -944,21 +944,21 @@
         <v>62</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>123</v>
@@ -967,7 +967,7 @@
         <v>124</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
         <v>60</v>
@@ -976,21 +976,21 @@
         <v>62</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>123</v>
@@ -999,7 +999,7 @@
         <v>124</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>60</v>
@@ -1008,21 +1008,21 @@
         <v>62</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>123</v>
@@ -1031,7 +1031,7 @@
         <v>124</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>60</v>
@@ -1040,21 +1040,21 @@
         <v>62</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>123</v>
@@ -1063,7 +1063,7 @@
         <v>124</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
         <v>60</v>
@@ -1072,138 +1072,138 @@
         <v>62</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="14" t="s">
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J10" s="13" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="14" t="s">
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J12" s="13" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1466,42 +1466,42 @@
   <hyperlinks>
     <hyperlink ref="D18" r:id="rId1" display="sample@sample.com"/>
     <hyperlink ref="D19" r:id="rId2" display="sample1@sample.com"/>
-    <hyperlink ref="D11" r:id="rId3" display="sample2@sample.com"/>
-    <hyperlink ref="D10" r:id="rId4" display="sample3@sample.com"/>
-    <hyperlink ref="D12" r:id="rId5" display="sample4@sample.com"/>
+    <hyperlink ref="D12" r:id="rId3" display="sample2@sample.com"/>
+    <hyperlink ref="D11" r:id="rId4" display="sample3@sample.com"/>
+    <hyperlink ref="D2" r:id="rId5" display="sample4@sample.com"/>
     <hyperlink ref="D13" r:id="rId6" display="sample5@sample.com"/>
     <hyperlink ref="D14" r:id="rId7" display="sample6@sample.com"/>
     <hyperlink ref="D15" r:id="rId8" display="sample7@sample.com"/>
     <hyperlink ref="D16" r:id="rId9" display="sample8@sample.com"/>
     <hyperlink ref="D17" r:id="rId10" display="sample9@sample.com"/>
     <hyperlink ref="D20" r:id="rId11" display="sample10@sample.com"/>
-    <hyperlink ref="D2" r:id="rId12" display="sample11@sample.com"/>
-    <hyperlink ref="D3" r:id="rId13" display="sample12@sample.com"/>
-    <hyperlink ref="D4" r:id="rId14" display="sample13@sample.com"/>
-    <hyperlink ref="D5" r:id="rId15" display="sample14@sample.com"/>
-    <hyperlink ref="D6" r:id="rId16" display="sample15@sample.com"/>
-    <hyperlink ref="D7" r:id="rId17" display="sample16@sample.com"/>
-    <hyperlink ref="D8" r:id="rId18" display="sample17@sample.com"/>
-    <hyperlink ref="D9" r:id="rId19" display="sample18@sample.com"/>
+    <hyperlink ref="D3" r:id="rId12" display="sample11@sample.com"/>
+    <hyperlink ref="D4" r:id="rId13" display="sample12@sample.com"/>
+    <hyperlink ref="D5" r:id="rId14" display="sample13@sample.com"/>
+    <hyperlink ref="D6" r:id="rId15" display="sample14@sample.com"/>
+    <hyperlink ref="D7" r:id="rId16" display="sample15@sample.com"/>
+    <hyperlink ref="D8" r:id="rId17" display="sample16@sample.com"/>
+    <hyperlink ref="D9" r:id="rId18" display="sample17@sample.com"/>
+    <hyperlink ref="D10" r:id="rId19" display="sample18@sample.com"/>
     <hyperlink ref="E18" r:id="rId20" display="sample@sample.com"/>
     <hyperlink ref="E19" r:id="rId21" display="sample1@sample.com"/>
-    <hyperlink ref="E11" r:id="rId22" display="sample2@sample.com"/>
-    <hyperlink ref="E10" r:id="rId23" display="sample3@sample.com"/>
-    <hyperlink ref="E12" r:id="rId24" display="sample4@sample.com"/>
+    <hyperlink ref="E12" r:id="rId22" display="sample2@sample.com"/>
+    <hyperlink ref="E11" r:id="rId23" display="sample3@sample.com"/>
+    <hyperlink ref="E2" r:id="rId24" display="sample4@sample.com"/>
     <hyperlink ref="E13" r:id="rId25" display="sample5@sample.com"/>
     <hyperlink ref="E14" r:id="rId26" display="sample6@sample.com"/>
     <hyperlink ref="E15" r:id="rId27" display="sample7@sample.com"/>
     <hyperlink ref="E16" r:id="rId28" display="sample8@sample.com"/>
     <hyperlink ref="E17" r:id="rId29" display="sample9@sample.com"/>
     <hyperlink ref="E20" r:id="rId30" display="sample10@sample.com"/>
-    <hyperlink ref="E2" r:id="rId31" display="sample11@sample.com"/>
-    <hyperlink ref="E3" r:id="rId32" display="sample12@sample.com"/>
-    <hyperlink ref="E4" r:id="rId33" display="sample13@sample.com"/>
-    <hyperlink ref="E5" r:id="rId34" display="sample14@sample.com"/>
-    <hyperlink ref="E6" r:id="rId35" display="sample15@sample.com"/>
-    <hyperlink ref="E7" r:id="rId36" display="sample16@sample.com"/>
-    <hyperlink ref="E8" r:id="rId37" display="sample17@sample.com"/>
-    <hyperlink ref="E9" r:id="rId38" display="sample18@sample.com"/>
+    <hyperlink ref="E3" r:id="rId31" display="sample11@sample.com"/>
+    <hyperlink ref="E4" r:id="rId32" display="sample12@sample.com"/>
+    <hyperlink ref="E5" r:id="rId33" display="sample13@sample.com"/>
+    <hyperlink ref="E6" r:id="rId34" display="sample14@sample.com"/>
+    <hyperlink ref="E7" r:id="rId35" display="sample15@sample.com"/>
+    <hyperlink ref="E8" r:id="rId36" display="sample16@sample.com"/>
+    <hyperlink ref="E9" r:id="rId37" display="sample17@sample.com"/>
+    <hyperlink ref="E10" r:id="rId38" display="sample18@sample.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId39"/>

--- a/data/BookAppointmentData.xlsx
+++ b/data/BookAppointmentData.xlsx
@@ -93,13 +93,13 @@
     <t>Colombo</t>
   </si>
   <si>
-    <t>AAA12345AA</t>
-  </si>
-  <si>
-    <t>032018000116</t>
-  </si>
-  <si>
     <t>30 April</t>
+  </si>
+  <si>
+    <t>WERWE55345</t>
+  </si>
+  <si>
+    <t>022019000041</t>
   </si>
 </sst>
 </file>
@@ -172,21 +172,21 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,9 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -502,78 +500,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
